--- a/EstimatedActiveCasesOverTimeByCounty/2021-01-25.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-01-25.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="310">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/24/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/25/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Active Cases 01-24</t>
+  </si>
+  <si>
+    <t>Active Cases 01-25</t>
   </si>
   <si>
     <t/>
@@ -1100,6 +1103,7 @@
     <col min="44" max="44" width="12.0" customWidth="true"/>
     <col min="45" max="45" width="12.0" customWidth="true"/>
     <col min="46" max="46" width="12.0" customWidth="true"/>
+    <col min="47" max="47" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1251,13 +1255,16 @@
       <c r="AT3" t="s" s="10">
         <v>47</v>
       </c>
+      <c r="AU3" t="s" s="10">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1390,14 +1397,17 @@
       </c>
       <c r="AT4" t="n">
         <v>483.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>475.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1529,15 +1539,18 @@
         <v>220.0</v>
       </c>
       <c r="AT5" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="AU5" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1670,14 +1683,17 @@
       </c>
       <c r="AT6" t="n">
         <v>850.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>832.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1810,14 +1826,17 @@
       </c>
       <c r="AT7" t="n">
         <v>140.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -1949,15 +1968,18 @@
         <v>17.0</v>
       </c>
       <c r="AT8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AU8" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2089,15 +2111,18 @@
         <v>22.0</v>
       </c>
       <c r="AT9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AU9" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2230,14 +2255,17 @@
       </c>
       <c r="AT10" t="n">
         <v>392.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2370,14 +2398,17 @@
       </c>
       <c r="AT11" t="n">
         <v>165.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2509,15 +2540,18 @@
         <v>26.0</v>
       </c>
       <c r="AT12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU12" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2650,14 +2684,17 @@
       </c>
       <c r="AT13" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -2790,14 +2827,17 @@
       </c>
       <c r="AT14" t="n">
         <v>575.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>574.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -2929,15 +2969,18 @@
         <v>6.0</v>
       </c>
       <c r="AT15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU15" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3070,14 +3113,17 @@
       </c>
       <c r="AT16" t="n">
         <v>334.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3209,15 +3255,18 @@
         <v>2317.0</v>
       </c>
       <c r="AT17" t="n">
+        <v>2317.0</v>
+      </c>
+      <c r="AU17" t="n">
         <v>2317.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3350,14 +3399,17 @@
       </c>
       <c r="AT18" t="n">
         <v>33564.0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>31122.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3489,15 +3541,18 @@
         <v>26.0</v>
       </c>
       <c r="AT19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU19" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -3629,15 +3684,18 @@
         <v>0.0</v>
       </c>
       <c r="AT20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -3770,14 +3828,17 @@
       </c>
       <c r="AT21" t="n">
         <v>114.0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -3909,15 +3970,18 @@
         <v>980.0</v>
       </c>
       <c r="AT22" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="AU22" t="n">
         <v>950.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -4049,15 +4113,18 @@
         <v>5679.0</v>
       </c>
       <c r="AT23" t="n">
+        <v>5959.0</v>
+      </c>
+      <c r="AU23" t="n">
         <v>5959.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -4189,15 +4256,18 @@
         <v>1673.0</v>
       </c>
       <c r="AT24" t="n">
+        <v>1673.0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>1673.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4330,14 +4400,17 @@
       </c>
       <c r="AT25" t="n">
         <v>59.0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -4469,15 +4542,18 @@
         <v>17.0</v>
       </c>
       <c r="AT26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AU26" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -4610,14 +4686,17 @@
       </c>
       <c r="AT27" t="n">
         <v>62.0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -4749,15 +4828,18 @@
         <v>496.0</v>
       </c>
       <c r="AT28" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="AU28" t="n">
         <v>496.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -4890,14 +4972,17 @@
       </c>
       <c r="AT29" t="n">
         <v>114.0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -5030,14 +5115,17 @@
       </c>
       <c r="AT30" t="n">
         <v>211.0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -5170,14 +5258,17 @@
       </c>
       <c r="AT31" t="n">
         <v>229.0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -5310,14 +5401,17 @@
       </c>
       <c r="AT32" t="n">
         <v>120.0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -5449,15 +5543,18 @@
         <v>21.0</v>
       </c>
       <c r="AT33" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AU33" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -5589,15 +5686,18 @@
         <v>4703.0</v>
       </c>
       <c r="AT34" t="n">
+        <v>4703.0</v>
+      </c>
+      <c r="AU34" t="n">
         <v>4703.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -5729,15 +5829,18 @@
         <v>184.0</v>
       </c>
       <c r="AT35" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="AU35" t="n">
         <v>188.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -5869,15 +5972,18 @@
         <v>23.0</v>
       </c>
       <c r="AT36" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AU36" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -6009,15 +6115,18 @@
         <v>163.0</v>
       </c>
       <c r="AT37" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="AU37" t="n">
         <v>171.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -6150,14 +6259,17 @@
       </c>
       <c r="AT38" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -6289,15 +6401,18 @@
         <v>345.0</v>
       </c>
       <c r="AT39" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="AU39" t="n">
         <v>345.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -6429,15 +6544,18 @@
         <v>189.0</v>
       </c>
       <c r="AT40" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="AU40" t="n">
         <v>165.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -6569,15 +6687,18 @@
         <v>50.0</v>
       </c>
       <c r="AT41" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AU41" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -6709,15 +6830,18 @@
         <v>35.0</v>
       </c>
       <c r="AT42" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AU42" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -6850,14 +6974,17 @@
       </c>
       <c r="AT43" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -6990,14 +7117,17 @@
       </c>
       <c r="AT44" t="n">
         <v>33.0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -7129,15 +7259,18 @@
         <v>16.0</v>
       </c>
       <c r="AT45" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AU45" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -7270,14 +7403,17 @@
       </c>
       <c r="AT46" t="n">
         <v>5136.0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>5228.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -7409,15 +7545,18 @@
         <v>15.0</v>
       </c>
       <c r="AT47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AU47" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -7550,14 +7689,17 @@
       </c>
       <c r="AT48" t="n">
         <v>84.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -7689,15 +7831,18 @@
         <v>691.0</v>
       </c>
       <c r="AT49" t="n">
+        <v>691.0</v>
+      </c>
+      <c r="AU49" t="n">
         <v>691.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -7829,15 +7974,18 @@
         <v>12.0</v>
       </c>
       <c r="AT50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AU50" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -7969,15 +8117,18 @@
         <v>26.0</v>
       </c>
       <c r="AT51" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU51" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -8109,15 +8260,18 @@
         <v>162.0</v>
       </c>
       <c r="AT52" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="AU52" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -8250,14 +8404,17 @@
       </c>
       <c r="AT53" t="n">
         <v>529.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>481.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -8389,15 +8546,18 @@
         <v>3.0</v>
       </c>
       <c r="AT54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -8529,15 +8689,18 @@
         <v>0.0</v>
       </c>
       <c r="AT55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -8669,15 +8832,18 @@
         <v>0.0</v>
       </c>
       <c r="AT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU56" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -8810,14 +8976,17 @@
       </c>
       <c r="AT57" t="n">
         <v>31.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -8950,14 +9119,17 @@
       </c>
       <c r="AT58" t="n">
         <v>33.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -9089,15 +9261,18 @@
         <v>0.0</v>
       </c>
       <c r="AT59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -9230,14 +9405,17 @@
       </c>
       <c r="AT60" t="n">
         <v>38086.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>36973.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -9369,15 +9547,18 @@
         <v>101.0</v>
       </c>
       <c r="AT61" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="AU61" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -9510,14 +9691,17 @@
       </c>
       <c r="AT62" t="n">
         <v>100.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -9649,15 +9833,18 @@
         <v>65.0</v>
       </c>
       <c r="AT63" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AU63" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -9789,15 +9976,18 @@
         <v>15043.0</v>
       </c>
       <c r="AT64" t="n">
+        <v>14938.0</v>
+      </c>
+      <c r="AU64" t="n">
         <v>14938.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -9930,14 +10120,17 @@
       </c>
       <c r="AT65" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -10069,15 +10262,18 @@
         <v>8.0</v>
       </c>
       <c r="AT66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AU66" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -10210,14 +10406,17 @@
       </c>
       <c r="AT67" t="n">
         <v>194.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -10349,15 +10548,18 @@
         <v>26.0</v>
       </c>
       <c r="AT68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AU68" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -10489,15 +10691,18 @@
         <v>151.0</v>
       </c>
       <c r="AT69" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="AU69" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -10629,15 +10834,18 @@
         <v>16.0</v>
       </c>
       <c r="AT70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AU70" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -10770,14 +10978,17 @@
       </c>
       <c r="AT71" t="n">
         <v>1693.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1695.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -10910,14 +11121,17 @@
       </c>
       <c r="AT72" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -11049,15 +11263,18 @@
         <v>865.0</v>
       </c>
       <c r="AT73" t="n">
+        <v>865.0</v>
+      </c>
+      <c r="AU73" t="n">
         <v>865.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -11189,15 +11406,18 @@
         <v>35021.0</v>
       </c>
       <c r="AT74" t="n">
+        <v>35270.0</v>
+      </c>
+      <c r="AU74" t="n">
         <v>35270.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -11329,15 +11549,18 @@
         <v>56.0</v>
       </c>
       <c r="AT75" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="AU75" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -11470,14 +11693,17 @@
       </c>
       <c r="AT76" t="n">
         <v>147.0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -11609,15 +11835,18 @@
         <v>166.0</v>
       </c>
       <c r="AT77" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="AU77" t="n">
         <v>166.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -11750,14 +11979,17 @@
       </c>
       <c r="AT78" t="n">
         <v>143.0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -11889,15 +12121,18 @@
         <v>15.0</v>
       </c>
       <c r="AT79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AU79" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -12030,14 +12265,17 @@
       </c>
       <c r="AT80" t="n">
         <v>65.0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -12169,15 +12407,18 @@
         <v>1.0</v>
       </c>
       <c r="AT81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU81" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -12309,15 +12550,18 @@
         <v>14138.0</v>
       </c>
       <c r="AT82" t="n">
+        <v>14133.0</v>
+      </c>
+      <c r="AU82" t="n">
         <v>14133.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -12449,15 +12693,18 @@
         <v>128.0</v>
       </c>
       <c r="AT83" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="AU83" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -12590,14 +12837,17 @@
       </c>
       <c r="AT84" t="n">
         <v>52.0</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -12730,14 +12980,17 @@
       </c>
       <c r="AT85" t="n">
         <v>95.0</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -12869,15 +13122,18 @@
         <v>37.0</v>
       </c>
       <c r="AT86" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AU86" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -13009,15 +13265,18 @@
         <v>7546.0</v>
       </c>
       <c r="AT87" t="n">
+        <v>7759.0</v>
+      </c>
+      <c r="AU87" t="n">
         <v>7759.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -13150,14 +13409,17 @@
       </c>
       <c r="AT88" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -13290,14 +13552,17 @@
       </c>
       <c r="AT89" t="n">
         <v>220.0</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -13429,15 +13694,18 @@
         <v>0.0</v>
       </c>
       <c r="AT90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -13570,14 +13838,17 @@
       </c>
       <c r="AT91" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -13710,14 +13981,17 @@
       </c>
       <c r="AT92" t="n">
         <v>183.0</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -13849,15 +14123,18 @@
         <v>98.0</v>
       </c>
       <c r="AT93" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AU93" t="n">
         <v>94.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -13989,15 +14266,18 @@
         <v>423.0</v>
       </c>
       <c r="AT94" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="AU94" t="n">
         <v>423.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -14129,15 +14409,18 @@
         <v>3013.0</v>
       </c>
       <c r="AT95" t="n">
+        <v>3041.0</v>
+      </c>
+      <c r="AU95" t="n">
         <v>3041.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -14270,14 +14553,17 @@
       </c>
       <c r="AT96" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -14410,14 +14696,17 @@
       </c>
       <c r="AT97" t="n">
         <v>842.0</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>695.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -14549,15 +14838,18 @@
         <v>229.0</v>
       </c>
       <c r="AT98" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="AU98" t="n">
         <v>229.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -14690,14 +14982,17 @@
       </c>
       <c r="AT99" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -14830,14 +15125,17 @@
       </c>
       <c r="AT100" t="n">
         <v>76.0</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -14969,15 +15267,18 @@
         <v>46.0</v>
       </c>
       <c r="AT101" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AU101" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -15109,15 +15410,18 @@
         <v>5.0</v>
       </c>
       <c r="AT102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AU102" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -15250,14 +15554,17 @@
       </c>
       <c r="AT103" t="n">
         <v>884.0</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>883.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -15390,14 +15697,17 @@
       </c>
       <c r="AT104" t="n">
         <v>49347.0</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>49366.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -15529,15 +15839,18 @@
         <v>1001.0</v>
       </c>
       <c r="AT105" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="AU105" t="n">
         <v>1001.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -15669,15 +15982,18 @@
         <v>7.0</v>
       </c>
       <c r="AT106" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU106" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -15809,15 +16125,18 @@
         <v>9.0</v>
       </c>
       <c r="AT107" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AU107" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -15949,15 +16268,18 @@
         <v>2697.0</v>
       </c>
       <c r="AT108" t="n">
+        <v>2697.0</v>
+      </c>
+      <c r="AU108" t="n">
         <v>2697.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -16089,15 +16411,18 @@
         <v>102.0</v>
       </c>
       <c r="AT109" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AU109" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -16229,15 +16554,18 @@
         <v>1629.0</v>
       </c>
       <c r="AT110" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="AU110" t="n">
         <v>1644.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -16369,15 +16697,18 @@
         <v>2046.0</v>
       </c>
       <c r="AT111" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="AU111" t="n">
         <v>2046.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -16510,14 +16841,17 @@
       </c>
       <c r="AT112" t="n">
         <v>185.0</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -16649,15 +16983,18 @@
         <v>106.0</v>
       </c>
       <c r="AT113" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AU113" t="n">
         <v>95.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -16789,15 +17126,18 @@
         <v>264.0</v>
       </c>
       <c r="AT114" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="AU114" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -16929,15 +17269,18 @@
         <v>263.0</v>
       </c>
       <c r="AT115" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="AU115" t="n">
         <v>261.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -17069,15 +17412,18 @@
         <v>187.0</v>
       </c>
       <c r="AT116" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="AU116" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -17210,14 +17556,17 @@
       </c>
       <c r="AT117" t="n">
         <v>271.0</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -17350,14 +17699,17 @@
       </c>
       <c r="AT118" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -17489,15 +17841,18 @@
         <v>820.0</v>
       </c>
       <c r="AT119" t="n">
+        <v>819.0</v>
+      </c>
+      <c r="AU119" t="n">
         <v>819.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -17630,14 +17985,17 @@
       </c>
       <c r="AT120" t="n">
         <v>82.0</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -17770,14 +18128,17 @@
       </c>
       <c r="AT121" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -17909,15 +18270,18 @@
         <v>37.0</v>
       </c>
       <c r="AT122" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AU122" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -18050,14 +18414,17 @@
       </c>
       <c r="AT123" t="n">
         <v>86.0</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -18189,15 +18556,18 @@
         <v>104.0</v>
       </c>
       <c r="AT124" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AU124" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -18329,15 +18699,18 @@
         <v>8.0</v>
       </c>
       <c r="AT125" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AU125" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -18469,15 +18842,18 @@
         <v>3409.0</v>
       </c>
       <c r="AT126" t="n">
+        <v>3394.0</v>
+      </c>
+      <c r="AU126" t="n">
         <v>3394.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -18610,14 +18986,17 @@
       </c>
       <c r="AT127" t="n">
         <v>141.0</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -18750,14 +19129,17 @@
       </c>
       <c r="AT128" t="n">
         <v>502.0</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>494.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -18889,15 +19271,18 @@
         <v>942.0</v>
       </c>
       <c r="AT129" t="n">
+        <v>942.0</v>
+      </c>
+      <c r="AU129" t="n">
         <v>942.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -19029,15 +19414,18 @@
         <v>215.0</v>
       </c>
       <c r="AT130" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="AU130" t="n">
         <v>215.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -19170,14 +19558,17 @@
       </c>
       <c r="AT131" t="n">
         <v>51.0</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -19309,15 +19700,18 @@
         <v>635.0</v>
       </c>
       <c r="AT132" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="AU132" t="n">
         <v>635.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -19450,14 +19844,17 @@
       </c>
       <c r="AT133" t="n">
         <v>197.0</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -19589,15 +19986,18 @@
         <v>2.0</v>
       </c>
       <c r="AT134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU134" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -19729,15 +20129,18 @@
         <v>0.0</v>
       </c>
       <c r="AT135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -19870,14 +20273,17 @@
       </c>
       <c r="AT136" t="n">
         <v>239.0</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -20009,15 +20415,18 @@
         <v>31.0</v>
       </c>
       <c r="AT137" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AU137" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -20149,15 +20558,18 @@
         <v>5.0</v>
       </c>
       <c r="AT138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AU138" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -20290,14 +20702,17 @@
       </c>
       <c r="AT139" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -20430,14 +20845,17 @@
       </c>
       <c r="AT140" t="n">
         <v>275.0</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -20569,15 +20987,18 @@
         <v>3.0</v>
       </c>
       <c r="AT141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU141" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -20709,15 +21130,18 @@
         <v>1022.0</v>
       </c>
       <c r="AT142" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="AU142" t="n">
         <v>1045.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -20850,14 +21274,17 @@
       </c>
       <c r="AT143" t="n">
         <v>93.0</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -20990,14 +21417,17 @@
       </c>
       <c r="AT144" t="n">
         <v>176.0</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B145" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -21129,15 +21559,18 @@
         <v>63.0</v>
       </c>
       <c r="AT145" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AU145" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B146" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -21270,14 +21703,17 @@
       </c>
       <c r="AT146" t="n">
         <v>80.0</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -21410,14 +21846,17 @@
       </c>
       <c r="AT147" t="n">
         <v>171.0</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -21550,14 +21989,17 @@
       </c>
       <c r="AT148" t="n">
         <v>80.0</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -21690,14 +22132,17 @@
       </c>
       <c r="AT149" t="n">
         <v>550.0</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>572.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -21830,14 +22275,17 @@
       </c>
       <c r="AT150" t="n">
         <v>126.0</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -21969,15 +22417,18 @@
         <v>24.0</v>
       </c>
       <c r="AT151" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AU151" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -22110,14 +22561,17 @@
       </c>
       <c r="AT152" t="n">
         <v>130.0</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -22249,15 +22703,18 @@
         <v>150.0</v>
       </c>
       <c r="AT153" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="AU153" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -22389,15 +22846,18 @@
         <v>0.0</v>
       </c>
       <c r="AT154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -22530,14 +22990,17 @@
       </c>
       <c r="AT155" t="n">
         <v>2509.0</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>2454.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -22669,15 +23132,18 @@
         <v>19.0</v>
       </c>
       <c r="AT156" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AU156" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -22810,14 +23276,17 @@
       </c>
       <c r="AT157" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -22949,15 +23418,18 @@
         <v>1020.0</v>
       </c>
       <c r="AT158" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="AU158" t="n">
         <v>940.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -23090,14 +23562,17 @@
       </c>
       <c r="AT159" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -23229,15 +23704,18 @@
         <v>42.0</v>
       </c>
       <c r="AT160" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="AU160" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -23369,15 +23847,18 @@
         <v>116.0</v>
       </c>
       <c r="AT161" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="AU161" t="n">
         <v>118.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -23510,14 +23991,17 @@
       </c>
       <c r="AT162" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -23650,14 +24134,17 @@
       </c>
       <c r="AT163" t="n">
         <v>60.0</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -23790,14 +24277,17 @@
       </c>
       <c r="AT164" t="n">
         <v>229.0</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -23929,15 +24419,18 @@
         <v>1343.0</v>
       </c>
       <c r="AT165" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="AU165" t="n">
         <v>1343.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -24069,15 +24562,18 @@
         <v>211.0</v>
       </c>
       <c r="AT166" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="AU166" t="n">
         <v>211.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B167" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -24210,14 +24706,17 @@
       </c>
       <c r="AT167" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B168" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -24349,15 +24848,18 @@
         <v>1898.0</v>
       </c>
       <c r="AT168" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="AU168" t="n">
         <v>1745.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B169" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -24490,14 +24992,17 @@
       </c>
       <c r="AT169" t="n">
         <v>70.0</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -24630,14 +25135,17 @@
       </c>
       <c r="AT170" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B171" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -24769,15 +25277,18 @@
         <v>35.0</v>
       </c>
       <c r="AT171" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AU171" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B172" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -24909,15 +25420,18 @@
         <v>62.0</v>
       </c>
       <c r="AT172" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AU172" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -25049,15 +25563,18 @@
         <v>17338.0</v>
       </c>
       <c r="AT173" t="n">
+        <v>17334.0</v>
+      </c>
+      <c r="AU173" t="n">
         <v>17334.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B174" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -25190,14 +25707,17 @@
       </c>
       <c r="AT174" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -25329,15 +25849,18 @@
         <v>138.0</v>
       </c>
       <c r="AT175" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="AU175" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -25470,14 +25993,17 @@
       </c>
       <c r="AT176" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B177" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -25609,15 +26135,18 @@
         <v>524.0</v>
       </c>
       <c r="AT177" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="AU177" t="n">
         <v>498.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -25749,15 +26278,18 @@
         <v>732.0</v>
       </c>
       <c r="AT178" t="n">
+        <v>723.0</v>
+      </c>
+      <c r="AU178" t="n">
         <v>723.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -25889,15 +26421,18 @@
         <v>30.0</v>
       </c>
       <c r="AT179" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AU179" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -26029,15 +26564,18 @@
         <v>272.0</v>
       </c>
       <c r="AT180" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="AU180" t="n">
         <v>272.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B181" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -26170,14 +26708,17 @@
       </c>
       <c r="AT181" t="n">
         <v>3135.0</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>3112.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B182" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -26309,15 +26850,18 @@
         <v>51.0</v>
       </c>
       <c r="AT182" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AU182" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B183" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -26450,14 +26994,17 @@
       </c>
       <c r="AT183" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -26589,15 +27136,18 @@
         <v>1531.0</v>
       </c>
       <c r="AT184" t="n">
+        <v>1528.0</v>
+      </c>
+      <c r="AU184" t="n">
         <v>1528.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B185" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -26729,15 +27279,18 @@
         <v>95.0</v>
       </c>
       <c r="AT185" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AU185" t="n">
         <v>95.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -26869,15 +27422,18 @@
         <v>228.0</v>
       </c>
       <c r="AT186" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="AU186" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B187" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -27009,15 +27565,18 @@
         <v>647.0</v>
       </c>
       <c r="AT187" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="AU187" t="n">
         <v>647.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -27149,15 +27708,18 @@
         <v>35.0</v>
       </c>
       <c r="AT188" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AU188" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -27289,15 +27851,18 @@
         <v>0.0</v>
       </c>
       <c r="AT189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B190" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -27430,14 +27995,17 @@
       </c>
       <c r="AT190" t="n">
         <v>258.0</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B191" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -27569,15 +28137,18 @@
         <v>1180.0</v>
       </c>
       <c r="AT191" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="AU191" t="n">
         <v>1180.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -27709,15 +28280,18 @@
         <v>25.0</v>
       </c>
       <c r="AT192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU192" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -27849,15 +28423,18 @@
         <v>220.0</v>
       </c>
       <c r="AT193" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="AU193" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -27989,15 +28566,18 @@
         <v>1764.0</v>
       </c>
       <c r="AT194" t="n">
+        <v>1764.0</v>
+      </c>
+      <c r="AU194" t="n">
         <v>1764.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -28130,14 +28710,17 @@
       </c>
       <c r="AT195" t="n">
         <v>14.0</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -28270,14 +28853,17 @@
       </c>
       <c r="AT196" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B197" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -28409,15 +28995,18 @@
         <v>80.0</v>
       </c>
       <c r="AT197" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="AU197" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B198" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -28550,14 +29139,17 @@
       </c>
       <c r="AT198" t="n">
         <v>132.0</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B199" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -28690,14 +29282,17 @@
       </c>
       <c r="AT199" t="n">
         <v>71.0</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -28829,15 +29424,18 @@
         <v>7.0</v>
       </c>
       <c r="AT200" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU200" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B201" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -28969,15 +29567,18 @@
         <v>109.0</v>
       </c>
       <c r="AT201" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="AU201" t="n">
         <v>104.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -29109,15 +29710,18 @@
         <v>491.0</v>
       </c>
       <c r="AT202" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="AU202" t="n">
         <v>491.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -29249,15 +29853,18 @@
         <v>37.0</v>
       </c>
       <c r="AT203" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AU203" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -29389,15 +29996,18 @@
         <v>567.0</v>
       </c>
       <c r="AT204" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="AU204" t="n">
         <v>562.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B205" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -29529,15 +30139,18 @@
         <v>18.0</v>
       </c>
       <c r="AT205" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AU205" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B206" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -29670,14 +30283,17 @@
       </c>
       <c r="AT206" t="n">
         <v>28.0</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B207" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -29809,15 +30425,18 @@
         <v>157.0</v>
       </c>
       <c r="AT207" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AU207" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B208" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -29949,15 +30568,18 @@
         <v>304.0</v>
       </c>
       <c r="AT208" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AU208" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B209" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -30090,14 +30712,17 @@
       </c>
       <c r="AT209" t="n">
         <v>54.0</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B210" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -30229,15 +30854,18 @@
         <v>9.0</v>
       </c>
       <c r="AT210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AU210" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -30369,15 +30997,18 @@
         <v>50.0</v>
       </c>
       <c r="AT211" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AU211" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -30509,15 +31140,18 @@
         <v>14.0</v>
       </c>
       <c r="AT212" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AU212" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B213" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -30649,15 +31283,18 @@
         <v>237.0</v>
       </c>
       <c r="AT213" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="AU213" t="n">
         <v>230.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B214" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -30789,15 +31426,18 @@
         <v>6.0</v>
       </c>
       <c r="AT214" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AU214" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -30929,15 +31569,18 @@
         <v>5081.0</v>
       </c>
       <c r="AT215" t="n">
+        <v>5125.0</v>
+      </c>
+      <c r="AU215" t="n">
         <v>5125.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -31069,15 +31712,18 @@
         <v>43.0</v>
       </c>
       <c r="AT216" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AU216" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -31210,14 +31856,17 @@
       </c>
       <c r="AT217" t="n">
         <v>1220.0</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1214.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B218" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -31349,15 +31998,18 @@
         <v>14.0</v>
       </c>
       <c r="AT218" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AU218" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B219" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -31489,15 +32141,18 @@
         <v>1.0</v>
       </c>
       <c r="AT219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU219" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -31629,15 +32284,18 @@
         <v>4.0</v>
       </c>
       <c r="AT220" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU220" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -31770,14 +32428,17 @@
       </c>
       <c r="AT221" t="n">
         <v>38.0</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B222" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -31909,15 +32570,18 @@
         <v>43.0</v>
       </c>
       <c r="AT222" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AU222" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B223" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -32050,14 +32714,17 @@
       </c>
       <c r="AT223" t="n">
         <v>53561.0</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>54482.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B224" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -32190,14 +32857,17 @@
       </c>
       <c r="AT224" t="n">
         <v>2698.0</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>2682.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -32330,14 +33000,17 @@
       </c>
       <c r="AT225" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B226" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -32469,15 +33142,18 @@
         <v>146.0</v>
       </c>
       <c r="AT226" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="AU226" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -32609,15 +33285,18 @@
         <v>6.0</v>
       </c>
       <c r="AT227" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU227" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -32749,15 +33428,18 @@
         <v>491.0</v>
       </c>
       <c r="AT228" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="AU228" t="n">
         <v>479.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -32890,14 +33572,17 @@
       </c>
       <c r="AT229" t="n">
         <v>1298.0</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -33030,14 +33715,17 @@
       </c>
       <c r="AT230" t="n">
         <v>5587.0</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>5644.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -33169,15 +33857,18 @@
         <v>98.0</v>
       </c>
       <c r="AT231" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="AU231" t="n">
         <v>92.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B232" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -33309,15 +34000,18 @@
         <v>55.0</v>
       </c>
       <c r="AT232" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AU232" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B233" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -33449,15 +34143,18 @@
         <v>760.0</v>
       </c>
       <c r="AT233" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="AU233" t="n">
         <v>747.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -33590,14 +34287,17 @@
       </c>
       <c r="AT234" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B235" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -33730,14 +34430,17 @@
       </c>
       <c r="AT235" t="n">
         <v>279.0</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B236" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -33869,15 +34572,18 @@
         <v>1211.0</v>
       </c>
       <c r="AT236" t="n">
+        <v>1211.0</v>
+      </c>
+      <c r="AU236" t="n">
         <v>1211.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -34009,15 +34715,18 @@
         <v>1105.0</v>
       </c>
       <c r="AT237" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="AU237" t="n">
         <v>1108.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -34149,15 +34858,18 @@
         <v>539.0</v>
       </c>
       <c r="AT238" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="AU238" t="n">
         <v>539.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B239" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -34290,14 +35002,17 @@
       </c>
       <c r="AT239" t="n">
         <v>889.0</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>890.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B240" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -34430,14 +35145,17 @@
       </c>
       <c r="AT240" t="n">
         <v>332.0</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B241" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -34570,14 +35288,17 @@
       </c>
       <c r="AT241" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -34710,14 +35431,17 @@
       </c>
       <c r="AT242" t="n">
         <v>127.0</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -34850,14 +35574,17 @@
       </c>
       <c r="AT243" t="n">
         <v>9778.0</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>9077.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -34990,14 +35717,17 @@
       </c>
       <c r="AT244" t="n">
         <v>271.0</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -35129,15 +35859,18 @@
         <v>45.0</v>
       </c>
       <c r="AT245" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AU245" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -35269,15 +36002,18 @@
         <v>2443.0</v>
       </c>
       <c r="AT246" t="n">
+        <v>2443.0</v>
+      </c>
+      <c r="AU246" t="n">
         <v>2443.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B247" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -35409,15 +36145,18 @@
         <v>8.0</v>
       </c>
       <c r="AT247" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU247" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -35550,14 +36289,17 @@
       </c>
       <c r="AT248" t="n">
         <v>252.0</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -35689,15 +36431,18 @@
         <v>2079.0</v>
       </c>
       <c r="AT249" t="n">
+        <v>2079.0</v>
+      </c>
+      <c r="AU249" t="n">
         <v>2079.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B250" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -35830,14 +36575,17 @@
       </c>
       <c r="AT250" t="n">
         <v>225.0</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -35970,14 +36718,17 @@
       </c>
       <c r="AT251" t="n">
         <v>74.0</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -36109,15 +36860,18 @@
         <v>319.0</v>
       </c>
       <c r="AT252" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AU252" t="n">
         <v>319.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -36249,15 +37003,18 @@
         <v>841.0</v>
       </c>
       <c r="AT253" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="AU253" t="n">
         <v>850.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -36389,15 +37146,18 @@
         <v>30.0</v>
       </c>
       <c r="AT254" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AU254" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B255" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -36529,15 +37289,18 @@
         <v>58.0</v>
       </c>
       <c r="AT255" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AU255" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B256" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -36670,14 +37433,17 @@
       </c>
       <c r="AT256" t="n">
         <v>287.0</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B257" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -36810,14 +37576,17 @@
       </c>
       <c r="AT257" t="n">
         <v>173.0</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B258" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -36863,13 +37632,14 @@
       <c r="AR258"/>
       <c r="AS258"/>
       <c r="AT258"/>
+      <c r="AU258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -36915,13 +37685,14 @@
       <c r="AR259"/>
       <c r="AS259"/>
       <c r="AT259"/>
+      <c r="AU259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -36967,13 +37738,14 @@
       <c r="AR260"/>
       <c r="AS260"/>
       <c r="AT260"/>
+      <c r="AU260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -37019,13 +37791,14 @@
       <c r="AR261"/>
       <c r="AS261"/>
       <c r="AT261"/>
+      <c r="AU261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -37071,13 +37844,14 @@
       <c r="AR262"/>
       <c r="AS262"/>
       <c r="AT262"/>
+      <c r="AU262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B263" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -37123,13 +37897,14 @@
       <c r="AR263"/>
       <c r="AS263"/>
       <c r="AT263"/>
+      <c r="AU263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -37175,13 +37950,14 @@
       <c r="AR264"/>
       <c r="AS264"/>
       <c r="AT264"/>
+      <c r="AU264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -37227,13 +38003,14 @@
       <c r="AR265"/>
       <c r="AS265"/>
       <c r="AT265"/>
+      <c r="AU265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -37279,13 +38056,14 @@
       <c r="AR266"/>
       <c r="AS266"/>
       <c r="AT266"/>
+      <c r="AU266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -37331,13 +38109,14 @@
       <c r="AR267"/>
       <c r="AS267"/>
       <c r="AT267"/>
+      <c r="AU267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -37383,13 +38162,14 @@
       <c r="AR268"/>
       <c r="AS268"/>
       <c r="AT268"/>
+      <c r="AU268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -37435,13 +38215,14 @@
       <c r="AR269"/>
       <c r="AS269"/>
       <c r="AT269"/>
+      <c r="AU269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -37487,13 +38268,14 @@
       <c r="AR270"/>
       <c r="AS270"/>
       <c r="AT270"/>
+      <c r="AU270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B271" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -37539,13 +38321,14 @@
       <c r="AR271"/>
       <c r="AS271"/>
       <c r="AT271"/>
+      <c r="AU271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -37591,13 +38374,14 @@
       <c r="AR272"/>
       <c r="AS272"/>
       <c r="AT272"/>
+      <c r="AU272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -37643,13 +38427,14 @@
       <c r="AR273"/>
       <c r="AS273"/>
       <c r="AT273"/>
+      <c r="AU273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -37695,13 +38480,14 @@
       <c r="AR274"/>
       <c r="AS274"/>
       <c r="AT274"/>
+      <c r="AU274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -37747,13 +38533,14 @@
       <c r="AR275"/>
       <c r="AS275"/>
       <c r="AT275"/>
+      <c r="AU275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -37799,13 +38586,14 @@
       <c r="AR276"/>
       <c r="AS276"/>
       <c r="AT276"/>
+      <c r="AU276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -37851,13 +38639,14 @@
       <c r="AR277"/>
       <c r="AS277"/>
       <c r="AT277"/>
+      <c r="AU277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B278" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -37903,13 +38692,14 @@
       <c r="AR278"/>
       <c r="AS278"/>
       <c r="AT278"/>
+      <c r="AU278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -37955,6 +38745,7 @@
       <c r="AR279"/>
       <c r="AS279"/>
       <c r="AT279"/>
+      <c r="AU279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
